--- a/biology/Zoologie/Crotaphopeltis_braestrupi/Crotaphopeltis_braestrupi.xlsx
+++ b/biology/Zoologie/Crotaphopeltis_braestrupi/Crotaphopeltis_braestrupi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotaphopeltis braestrupi est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotaphopeltis braestrupi est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Burkina Faso, dans la partie supérieure de la Volta, et en Somalie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Burkina Faso, dans la partie supérieure de la Volta, et en Somalie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotaphopeltis acarina, synonyme de cette espèce, pourrait être en fait synonyme de Crotaphopeltis hippocrepis[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotaphopeltis acarina, synonyme de cette espèce, pourrait être en fait synonyme de Crotaphopeltis hippocrepis.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Frits Wimpffen Braestrup (1906–1999)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Frits Wimpffen Braestrup (1906–1999).
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rasmussen, 1985 : A new species of Crotaphopeltis from east Africa, with remarks on the identity of Dipsas hippocrepis Reinhardt, 1843 (Serpentes: Boiginae). Steenstrupia, vol. 11, no 4, p. 113-129.
 Roman, 1974 : Deux espèces du genre Crotaphopeltis (Colubridés Ophistoglyphes) dans le territoire de Haute-Volta : Crotaphopeltis hotamboeia (Laurent) et Crotaphopeltis acarina n. sp. Notes et documents Voltaïques, vol. 8, no 1, p. 1-13.</t>
